--- a/dim_date_st.csv.xlsx
+++ b/dim_date_st.csv.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Galileo Semestres\postgrado\trimestre1\data warehouse\proyecto\SuperStoreProjDW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95DB3B9A-250B-4977-B261-331C29837C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C40D7C-333D-4C0C-9599-DBC8DB6E129B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{171D93AD-7DD6-41D7-BDBC-C909D41E1187}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="dim_date" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -655,7 +655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582FF862-F045-4CCD-8C02-8E8F09E34CFB}">
   <dimension ref="A1:O2192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
